--- a/src/data/paralympics.xlsx
+++ b/src/data/paralympics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahsanders/PycharmProjects/comp0034-tutorials/src/tutor/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahsanders/PycharmProjects/comp0034-tutorials-tutor/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AB899F-4B28-AA47-9BBB-FD7F8E7E9122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E49EFB4-22F6-C348-A873-B72DCA32D05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{CBF15B4E-2805-CD44-9DA6-567684115F1A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3827" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3829" uniqueCount="624">
   <si>
     <t>type</t>
   </si>
@@ -1905,6 +1905,12 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
   </si>
 </sst>
 </file>
@@ -2789,10 +2795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A5B346-9586-614E-9210-4DD6279EFFF5}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2803,7 +2809,7 @@
     <col min="15" max="15" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2849,8 +2855,14 @@
       <c r="O1" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2891,7 +2903,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2938,7 +2950,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2985,7 +2997,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3032,7 +3044,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3079,7 +3091,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3126,7 +3138,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3173,7 +3185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3220,7 +3232,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3267,7 +3279,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3314,7 +3326,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3361,7 +3373,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3408,7 +3420,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3455,7 +3467,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3502,7 +3514,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
